--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,53 +2711,45 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2775,34 +2759,34 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,12 +2797,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2828,16 +2812,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -2845,12 +2821,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2861,36 +2837,44 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2901,31 +2885,23 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2933,12 +2909,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2949,17 +2925,17 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,7 +2965,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -3004,21 +2980,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,7 +3013,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3039,21 +3023,13 @@
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3061,12 +3037,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3077,12 +3053,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3101,12 +3077,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3117,12 +3093,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3132,21 +3108,29 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>demolition</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>is-proposing-demolition</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3157,12 +3141,12 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3172,16 +3156,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>demolition</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Details of any demolition that needs to take place as part of the development proposal.</t>
@@ -3189,12 +3165,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>is-proposing-demolition</t>
+          <t>is-total-demolition</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3205,7 +3181,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3215,7 +3191,7 @@
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3205,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>is-total-demolition</t>
+          <t>is-demolishing-building-in-curtilage</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3245,7 +3221,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3269,12 +3245,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>is-demolishing-building-in-curtilage</t>
+          <t>is-partial-demolition</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3285,7 +3261,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3309,12 +3285,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>is-partial-demolition</t>
+          <t>listed-building-volume</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3325,12 +3301,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3349,12 +3325,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>listed-building-volume</t>
+          <t>demolition-volume</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3365,7 +3341,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3389,12 +3365,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>demolition-volume</t>
+          <t>part-built-date</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3405,12 +3381,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3429,12 +3405,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>part-built-date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3445,17 +3421,17 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3445,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3485,7 +3461,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3500,21 +3476,29 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>immunity-from-listing</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>cert-of-immunity-sought</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3525,12 +3509,12 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3540,16 +3524,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>immunity-from-listing</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
@@ -3557,12 +3533,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>cert-of-immunity-sought</t>
+          <t>application-result</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3573,36 +3549,44 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>lb-alter</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+          <t>Details of any changes being made to a listed building as part of development works</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>application-result</t>
+          <t>proposal-alter-lb</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3613,31 +3597,23 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>lb-alter</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Details of any changes being made to a listed building as part of development works</t>
@@ -3645,12 +3621,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb</t>
+          <t>proposal-alter-lb-types</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Proposal alteration types[]</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3661,17 +3637,17 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3685,33 +3661,41 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb-types</t>
+          <t>document-reference</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3719,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3749,7 +3733,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3764,45 +3748,45 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>lb-grade</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
+          <t>The grade of any listed building affected by the proposed development.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>listed-building-grade</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3812,16 +3796,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Listed building grade</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>lb-grade</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>The grade of any listed building affected by the proposed development.</t>
@@ -3829,12 +3805,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>listed-building-grade</t>
+          <t>listed-building</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Listed building grade</t>
+          <t>Listed building</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3845,17 +3821,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
+          <t>Listed building reference for cross-referencing with listed building records</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3845,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>listed-building</t>
+          <t>provided-by</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Listed building</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3885,12 +3861,12 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Listed building reference for cross-referencing with listed building records</t>
+          <t>Source of the listed building grade information</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -3900,32 +3876,48 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>The grade of any listed building affected by the proposed development.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>provided-by</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Source of the listed building grade information</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3935,21 +3927,13 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -3967,12 +3951,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -3981,17 +3965,17 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4015,12 +3999,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4029,7 +4013,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4063,12 +4047,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4077,12 +4061,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4111,12 +4095,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4125,7 +4109,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4149,31 +4133,23 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4183,7 +4159,7 @@
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4197,28 +4173,36 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4247,12 +4231,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4261,7 +4245,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4276,45 +4260,45 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4324,16 +4308,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -4341,33 +4317,49 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>lbc-owners</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4401,19 +4393,19 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4423,7 +4415,7 @@
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4457,19 +4449,19 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4513,19 +4505,19 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4569,19 +4561,19 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4591,7 +4583,7 @@
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4615,34 +4607,26 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4661,36 +4645,28 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>lbc-owners</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4709,23 +4685,31 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4735,7 +4719,7 @@
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4743,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4773,12 +4757,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4797,41 +4781,33 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4821,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4861,12 +4837,12 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4885,12 +4861,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4901,7 +4877,7 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4925,12 +4901,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4941,12 +4917,12 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4956,21 +4932,29 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -4981,31 +4965,23 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -5013,12 +4989,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5029,17 +5005,17 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5029,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5069,7 +5045,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5093,12 +5069,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5109,7 +5085,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5133,12 +5109,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5149,7 +5125,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5164,21 +5140,29 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5189,7 +5173,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5199,21 +5183,13 @@
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -5221,12 +5197,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5237,12 +5213,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5261,12 +5237,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5277,17 +5253,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5277,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5317,17 +5293,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5317,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5357,36 +5333,44 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>related-applications</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>has-related-applications</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -5397,60 +5381,60 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
         <is>
           <t>related-applications</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr">
-        <is>
-          <t>has-related-applications</t>
-        </is>
-      </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5479,12 +5463,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5493,7 +5477,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5527,12 +5511,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5541,7 +5525,7 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
@@ -5551,36 +5535,44 @@
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Details of any other development proposals made for the site</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>related-applications</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5589,12 +5581,12 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5604,16 +5596,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -5631,12 +5615,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5645,12 +5629,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5679,12 +5663,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5693,7 +5677,7 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5727,12 +5711,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5741,12 +5725,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5775,12 +5759,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5789,7 +5773,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5823,12 +5807,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5837,7 +5821,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5871,12 +5855,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5885,7 +5869,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5919,12 +5903,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -5933,12 +5917,12 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -5967,12 +5951,12 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -5981,7 +5965,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -5996,64 +5980,56 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -6061,12 +6037,12 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
@@ -6077,12 +6053,12 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
@@ -6101,12 +6077,12 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
@@ -6117,17 +6093,17 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6141,23 +6117,31 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6167,7 +6151,7 @@
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6175,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -6205,7 +6189,7 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6239,12 +6223,12 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -6253,7 +6237,7 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6262,54 +6246,6 @@
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n"/>
-      <c r="B120" s="2" t="n"/>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr"/>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M120" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N120" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6317,46 +6253,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A78:A91"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B78:B91"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B77:B90"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,53 +2647,45 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2711,34 +2695,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,12 +2733,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2764,16 +2748,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -2781,12 +2757,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2797,36 +2773,44 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2837,31 +2821,23 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2869,12 +2845,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2885,17 +2861,17 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,7 +2901,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2940,21 +2916,29 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,7 +2949,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -2975,21 +2959,13 @@
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2997,12 +2973,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3013,12 +2989,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3037,12 +3013,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3053,12 +3029,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3068,21 +3044,29 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>demolition</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>is-proposing-demolition</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3093,12 +3077,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3108,16 +3092,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>demolition</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of any demolition that needs to take place as part of the development proposal.</t>
@@ -3125,12 +3101,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>is-proposing-demolition</t>
+          <t>is-total-demolition</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3141,7 +3117,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3151,7 +3127,7 @@
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3165,12 +3141,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>is-total-demolition</t>
+          <t>is-demolishing-building-in-curtilage</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3181,7 +3157,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3205,12 +3181,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>is-demolishing-building-in-curtilage</t>
+          <t>is-partial-demolition</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3221,7 +3197,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3245,12 +3221,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>is-partial-demolition</t>
+          <t>listed-building-volume</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3261,12 +3237,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3285,12 +3261,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>listed-building-volume</t>
+          <t>demolition-volume</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3301,7 +3277,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3325,12 +3301,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>demolition-volume</t>
+          <t>part-built-date</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3341,12 +3317,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3365,12 +3341,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>part-built-date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3381,17 +3357,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3405,12 +3381,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3421,7 +3397,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3436,21 +3412,29 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>immunity-from-listing</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>cert-of-immunity-sought</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3461,12 +3445,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3476,16 +3460,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>immunity-from-listing</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
@@ -3493,12 +3469,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>cert-of-immunity-sought</t>
+          <t>application-result</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3509,36 +3485,44 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>lb-alter</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+          <t>Details of any changes being made to a listed building as part of development works</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>application-result</t>
+          <t>proposal-alter-lb</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3549,31 +3533,23 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>lb-alter</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Details of any changes being made to a listed building as part of development works</t>
@@ -3581,12 +3557,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb</t>
+          <t>proposal-alter-lb-types</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Proposal alteration types[]</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3597,17 +3573,17 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3621,33 +3597,41 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb-types</t>
+          <t>document-reference</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3655,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3685,7 +3669,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3700,45 +3684,45 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>lb-grade</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
+          <t>The grade of any listed building affected by the proposed development.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>listed-building-grade</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3748,16 +3732,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Listed building grade</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>lb-grade</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>The grade of any listed building affected by the proposed development.</t>
@@ -3765,12 +3741,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>listed-building-grade</t>
+          <t>listed-building</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Listed building grade</t>
+          <t>Listed building</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3781,17 +3757,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
+          <t>Listed building reference for cross-referencing with listed building records</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3781,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>listed-building</t>
+          <t>provided-by</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Listed building</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3821,12 +3797,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Listed building reference for cross-referencing with listed building records</t>
+          <t>Source of the listed building grade information</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3836,32 +3812,48 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>The grade of any listed building affected by the proposed development.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>provided-by</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Source of the listed building grade information</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3871,21 +3863,13 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -3903,12 +3887,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3917,17 +3901,17 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3951,12 +3935,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -3965,7 +3949,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -3999,12 +3983,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4013,12 +3997,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4047,12 +4031,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4061,7 +4045,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4085,31 +4069,23 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4119,7 +4095,7 @@
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4133,28 +4109,36 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4183,12 +4167,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4197,7 +4181,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4212,45 +4196,45 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4260,16 +4244,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -4277,33 +4253,49 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>lbc-owners</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4337,19 +4329,19 @@
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4359,7 +4351,7 @@
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4393,19 +4385,19 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4449,19 +4441,19 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4505,19 +4497,19 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4527,7 +4519,7 @@
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4551,34 +4543,26 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4597,36 +4581,28 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>lbc-owners</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4645,23 +4621,31 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4671,7 +4655,7 @@
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4679,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4709,12 +4693,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4733,41 +4717,33 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4757,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4797,12 +4773,12 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
@@ -4821,12 +4797,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4837,7 +4813,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4861,12 +4837,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4877,12 +4853,12 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
@@ -4892,21 +4868,29 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4917,31 +4901,23 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4949,12 +4925,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -4965,17 +4941,17 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4989,12 +4965,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5005,7 +4981,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5029,12 +5005,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5045,7 +5021,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5069,12 +5045,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5085,7 +5061,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5100,21 +5076,29 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5125,7 +5109,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5135,21 +5119,13 @@
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -5157,12 +5133,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5173,12 +5149,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5197,12 +5173,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5213,17 +5189,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5213,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5253,17 +5229,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5253,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5293,36 +5269,44 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>related-applications</t>
+        </is>
+      </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>has-related-applications</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5333,60 +5317,60 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>related-applications</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr">
-        <is>
-          <t>has-related-applications</t>
-        </is>
-      </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
@@ -5415,12 +5399,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5429,7 +5413,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5463,12 +5447,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5477,7 +5461,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5487,36 +5471,44 @@
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Details of any other development proposals made for the site</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>related-applications</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5525,12 +5517,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5540,16 +5532,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -5567,12 +5551,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5581,12 +5565,12 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5615,12 +5599,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5629,7 +5613,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5663,12 +5647,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5677,12 +5661,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5711,12 +5695,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5725,7 +5709,7 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5759,12 +5743,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5773,7 +5757,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5807,12 +5791,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5821,7 +5805,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5855,12 +5839,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5869,12 +5853,12 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
@@ -5903,12 +5887,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -5917,7 +5901,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5932,64 +5916,56 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr"/>
       <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5997,12 +5973,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
@@ -6013,12 +5989,12 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
@@ -6037,12 +6013,12 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
@@ -6053,17 +6029,17 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6077,23 +6053,31 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr"/>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6103,7 +6087,7 @@
       </c>
       <c r="N116" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6127,12 +6111,12 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -6141,7 +6125,7 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6175,12 +6159,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -6189,7 +6173,7 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6198,54 +6182,6 @@
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n"/>
-      <c r="B119" s="2" t="n"/>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr"/>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M119" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N119" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6253,46 +6189,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A105:A113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B77:B90"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A76:A89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,45 +2647,53 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2695,34 +2703,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Community consultation</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>community-consultation</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2733,12 +2741,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2748,8 +2756,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Community consultation</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>community-consultation</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -2757,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2773,44 +2789,36 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2821,23 +2829,31 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2845,12 +2861,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,17 +2877,17 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,7 +2917,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2916,29 +2932,21 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2949,7 +2957,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -2959,13 +2967,21 @@
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2973,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2989,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3013,12 +3029,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3029,12 +3045,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3044,29 +3060,21 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>demolition</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>is-proposing-demolition</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3077,12 +3085,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3092,8 +3100,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>demolition</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of any demolition that needs to take place as part of the development proposal.</t>
@@ -3101,12 +3117,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>is-total-demolition</t>
+          <t>is-proposing-demolition</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3117,7 +3133,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3127,7 +3143,7 @@
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3157,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>is-demolishing-building-in-curtilage</t>
+          <t>is-total-demolition</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3181,12 +3197,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>is-partial-demolition</t>
+          <t>is-demolishing-building-in-curtilage</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3197,7 +3213,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3221,12 +3237,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>listed-building-volume</t>
+          <t>is-partial-demolition</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3237,12 +3253,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3261,12 +3277,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>demolition-volume</t>
+          <t>listed-building-volume</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3277,7 +3293,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3301,12 +3317,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>part-built-date</t>
+          <t>demolition-volume</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3317,12 +3333,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3341,12 +3357,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>part-built-date</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3357,17 +3373,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3397,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3397,7 +3413,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3412,29 +3428,21 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>immunity-from-listing</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>cert-of-immunity-sought</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3445,12 +3453,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3460,8 +3468,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>immunity-from-listing</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
@@ -3469,12 +3485,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>application-result</t>
+          <t>cert-of-immunity-sought</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3485,44 +3501,36 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>lb-alter</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb</t>
+          <t>application-result</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3533,23 +3541,31 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>lb-alter</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Details of any changes being made to a listed building as part of development works</t>
@@ -3557,12 +3573,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>proposal-alter-lb-types</t>
+          <t>proposal-alter-lb</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3573,17 +3589,17 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3597,41 +3613,33 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>proposal-alter-lb-types</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Proposal alteration types[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3663,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3669,7 +3677,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -4148,45 +4156,45 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4196,16 +4204,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -4213,33 +4213,49 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>lbc-owners</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4273,19 +4289,19 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4295,7 +4311,7 @@
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4329,19 +4345,19 @@
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4385,19 +4401,19 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4441,19 +4457,19 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4463,7 +4479,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4487,34 +4503,26 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4533,36 +4541,28 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>lbc-owners</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4581,23 +4581,31 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4607,7 +4615,7 @@
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4639,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4645,12 +4653,12 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4669,41 +4677,33 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4733,12 +4733,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4813,12 +4813,12 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4828,21 +4828,29 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4853,31 +4861,23 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4885,12 +4885,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
@@ -4901,17 +4901,17 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -4981,7 +4981,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5021,7 +5021,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5036,21 +5036,29 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5061,7 +5069,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5071,21 +5079,13 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -5109,12 +5109,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5149,17 +5149,17 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5189,17 +5189,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5229,36 +5229,44 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>related-applications</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>has-related-applications</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5269,60 +5277,60 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>related-applications</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>has-related-applications</t>
-        </is>
-      </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5351,12 +5359,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5365,7 +5373,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5399,12 +5407,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5413,7 +5421,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5423,36 +5431,44 @@
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Details of any other development proposals made for the site</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>related-applications</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5461,12 +5477,12 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5476,16 +5492,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -5503,12 +5511,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5517,12 +5525,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5551,12 +5559,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5565,7 +5573,7 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5599,12 +5607,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5613,12 +5621,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5647,12 +5655,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5661,7 +5669,7 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5695,12 +5703,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5709,7 +5717,7 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5743,12 +5751,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5757,7 +5765,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5791,12 +5799,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5805,12 +5813,12 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5839,12 +5847,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5853,7 +5861,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5868,64 +5876,56 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
       <c r="H112" s="2" t="inlineStr"/>
       <c r="I112" s="2" t="inlineStr"/>
       <c r="J112" s="2" t="inlineStr"/>
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5933,12 +5933,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
@@ -5949,12 +5949,12 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
@@ -5989,17 +5989,17 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6013,23 +6013,31 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6039,7 +6047,7 @@
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6071,12 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -6077,7 +6085,7 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6111,12 +6119,12 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -6125,7 +6133,7 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6134,54 +6142,6 @@
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n"/>
-      <c r="B118" s="2" t="n"/>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M118" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N118" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6189,46 +6149,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A103:A111"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B99:B102"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A89:A93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3373,12 +3373,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM format.</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/listed-building-consent-lbc-verbose.xlsx
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4813,12 +4813,12 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
